--- a/xlsx_outputs/2feb.xlsx
+++ b/xlsx_outputs/2feb.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,10 +424,54 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Date / Time of Action LoggedA pplication Type Command Device Name User Name Control Command Reason Key Workstation</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr"/>
+          <t>Date / Time of Action</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>LoggedA pplication</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Command</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Device Name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>User Name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Control Command</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Workstation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -437,7 +481,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Hartman Stuart 42250 yb75aww computerno: 1081 / deviceno: 201 / facilityno: 1338 STUART-OFFICE-CBW</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Hartman Stuart</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>yb75aww</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>STUART-OFFICE-CBW</t>
         </is>
       </c>
     </row>
@@ -449,7 +533,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 permit357 renewed computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>permit357 renewed</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -461,7 +585,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 ld68 rxx permit computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ld68 rxx permit</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -473,7 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 gl25euh sixth computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>gl25euh sixth</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -485,7 +689,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 gl25euh computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>gl25euh</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -497,7 +741,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 gd75dvp computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>gd75dvp</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -509,7 +793,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 dy25zxl sixth computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>dy25zxl sixth</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -521,7 +845,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 berkeley homes staff computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>berkeley homes staff</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -533,7 +897,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 YH75NLF computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>YH75NLF</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -545,7 +949,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 YH75CAE SIXTH computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>YH75CAE SIXTH</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -557,7 +1001,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 YD25BSN computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>YD25BSN</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -569,7 +1053,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 VISA CAR PARK computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>VISA CAR PARK</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -581,7 +1105,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 SPACE 74 TENANT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SPACE 74 TENANT</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -593,7 +1157,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 RV25WWU SIXTH computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>RV25WWU SIXTH</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -605,7 +1209,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 PX17XDE STAFF SIXTH computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>PX17XDE STAFF SIXTH</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -617,7 +1261,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 PERMIT SC80 SP129 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>PERMIT SC80 SP129</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -629,7 +1313,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 OW75TNZ computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>OW75TNZ</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -641,7 +1365,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 OW75CEF computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>OW75CEF</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -653,7 +1417,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 KO25OXA SIXTH computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>KO25OXA SIXTH</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -665,7 +1469,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 KO25ORV computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>KO25ORV</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -677,7 +1521,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 KO25ORV computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>KO25ORV</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -689,7 +1573,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Hartman Stuart 42250 GL75CPZ computerno: 1081 / deviceno: 201 / facilityno: 1338 STUART-OFFICE-CBW</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hartman Stuart</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>GL75CPZ</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>STUART-OFFICE-CBW</t>
         </is>
       </c>
     </row>
@@ -701,7 +1625,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 GL25EUH computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>GL25EUH</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -713,7 +1677,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 GF75YTY SIXTH computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>GF75YTY SIXTH</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -725,7 +1729,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 FG14TMVD SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>FG14TMVD SIXT</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -737,7 +1781,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate closed Exit 1 Tumwijukye B. A Dennis ... 42251 CLOSED computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Barrier gate closed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>42251</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CLOSED</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -749,7 +1833,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 357 PAID computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>357 PAID</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -761,7 +1885,47 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Tumwijukye B. A Dennis ... 42250 328 space computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>328 space</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -773,7 +1937,47 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Farah Abdi 42250 24 Oswald barrier opening computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Farah Abdi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>24 Oswald barrier opening</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -785,7 +1989,43 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Device Control Control Initialization Exit 1 Tumwijukye B. A Dennis ... 42048 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Initialization</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>42048</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -797,7 +2037,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Barrier arm in correct position Exit 1 CTRL_42245 TIMED OUT ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Barrier arm in correct position</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CTRL_42245</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TIMED OUT</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -809,7 +2081,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Barrier arm is back in mounting bracket Exit 1 CTRL_42243 TIMED OUT ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Barrier arm is back in mounting bracket</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CTRL_42243</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TIMED OUT</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -821,7 +2125,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Barrier arm in correct position Exit 1 CTRL_42245 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Barrier arm in correct position</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CTRL_42245</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -833,7 +2169,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Barrier arm is back in mounting bracket Exit 1 CTRL_42243 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Barrier arm is back in mounting bracket</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CTRL_42243</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -845,7 +2213,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Barrier arm in wrong position Exit 1 CTRL_42244 TIMED OUT ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Barrier arm in wrong position</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CTRL_42244</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TIMED OUT</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -857,7 +2257,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Barrier arm out of mounting bracket Exit 1 CTRL_42242 TIMED OUT ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Barrier arm out of mounting bracket</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CTRL_42242</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TIMED OUT</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -869,7 +2301,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Barrier arm in wrong position Exit 1 CTRL_42244 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Barrier arm in wrong position</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CTRL_42244</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -881,7 +2345,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Barrier arm out of mounting bracket Exit 1 CTRL_42242 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Barrier arm out of mounting bracket</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CTRL_42242</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -893,7 +2389,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -905,7 +2433,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -917,7 +2477,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -929,7 +2521,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -941,7 +2565,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -953,7 +2609,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -965,7 +2653,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -977,7 +2697,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -989,7 +2741,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1001,7 +2785,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1013,7 +2829,39 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1025,7 +2873,39 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1037,7 +2917,39 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1049,7 +2961,39 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1061,7 +3005,39 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1073,7 +3049,39 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1085,7 +3093,39 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1097,7 +3137,39 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1109,7 +3181,39 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1121,7 +3225,39 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1133,7 +3269,39 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1145,7 +3313,39 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1157,7 +3357,39 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1169,7 +3401,39 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1181,7 +3445,39 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1193,7 +3489,39 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1205,7 +3533,39 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1217,7 +3577,39 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1229,7 +3621,43 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Device Control Control Card event Exit 1 Tumwijukye B. A Dennis ... 45575 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Card event</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Tumwijukye B. A Dennis  ...</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>45575</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -1241,7 +3669,39 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1253,7 +3713,39 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
